--- a/public/callcycle/CALLCYCLE_SAMPLE.xlsx
+++ b/public/callcycle/CALLCYCLE_SAMPLE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NextG\Admin\5.8.2022\Project_Structure\public\callcycle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AC3483-EB77-486B-97C0-4D5E3629BAAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E0352E-ADD3-4191-B46F-8B4E524B984E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,12 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>userID</t>
-  </si>
-  <si>
-    <t>clientID</t>
   </si>
   <si>
     <t>routeID</t>
@@ -400,118 +397,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AI190"/>
+  <dimension ref="A1:AH190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2</v>
-      </c>
       <c r="G1" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L1" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M1" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N1" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O1" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P1" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R1" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S1" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T1" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U1" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V1" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W1" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X1" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y1" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z1" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA1" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB1" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC1" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD1" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE1" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF1" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG1" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="1">
         <v>31</v>
       </c>
     </row>
